--- a/BackTest/2020-01-20 BackTest PPT.xlsx
+++ b/BackTest/2020-01-20 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>44756.017</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>44757.317</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>394.6</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,17 +599,11 @@
         <v>43457.68380000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>395.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -622,17 +632,11 @@
         <v>43308.68380000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,7 +665,7 @@
         <v>43311.98380000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>392</v>
@@ -669,7 +673,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -737,11 +741,9 @@
         <v>43033.98380000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>393.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -998,16 +1000,18 @@
         <v>42318.73070000001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1037,7 +1041,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1070,7 +1078,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1103,7 +1115,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1136,7 +1152,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1165,11 +1185,15 @@
         <v>41425.43930000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1198,11 +1222,15 @@
         <v>41341.41410000002</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1231,14 +1259,16 @@
         <v>41346.38922437002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1264,7 +1294,7 @@
         <v>40990.08782437002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1297,7 +1327,7 @@
         <v>41074.87122437002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1330,7 +1360,7 @@
         <v>41074.87122437002</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1363,7 +1393,7 @@
         <v>41074.87122437002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1396,7 +1426,7 @@
         <v>41024.87122437002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1429,7 +1459,7 @@
         <v>40924.87122437002</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1462,7 +1492,7 @@
         <v>41171.87112437002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1528,7 +1558,7 @@
         <v>46026.08112437002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1561,7 +1591,7 @@
         <v>45890.08112437002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1594,7 +1624,7 @@
         <v>46232.38112437003</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1627,7 +1657,7 @@
         <v>46444.32042437002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1660,7 +1690,7 @@
         <v>46103.32042437002</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1693,7 +1723,7 @@
         <v>46013.27552437002</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1726,7 +1756,7 @@
         <v>53075.26722437002</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1759,7 +1789,7 @@
         <v>52975.26722437002</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2122,7 +2152,7 @@
         <v>54515.98702437003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2188,7 +2218,7 @@
         <v>53695.98702437003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2221,7 +2251,7 @@
         <v>53688.18702437003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2254,7 +2284,7 @@
         <v>53714.39992437002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2287,7 +2317,7 @@
         <v>53708.19992437003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2320,7 +2350,7 @@
         <v>53701.99992437003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2353,7 +2383,7 @@
         <v>53801.99992437003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2386,7 +2416,7 @@
         <v>53799.39992437003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2419,7 +2449,7 @@
         <v>53965.47022437003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2452,7 +2482,7 @@
         <v>53963.47022437003</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2485,7 +2515,7 @@
         <v>53962.17022437003</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2749,7 +2779,7 @@
         <v>54900.96777480002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2782,7 +2812,7 @@
         <v>54900.96777480002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2815,7 +2845,7 @@
         <v>54898.96777480002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2848,7 +2878,7 @@
         <v>54897.66777480002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2881,7 +2911,7 @@
         <v>55148.83687480002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2914,7 +2944,7 @@
         <v>55148.83687480002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2947,7 +2977,7 @@
         <v>55148.83687480002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2980,7 +3010,7 @@
         <v>54351.57887480002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3013,7 +3043,7 @@
         <v>52350.77337480002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3046,7 +3076,7 @@
         <v>48686.39777480002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3079,7 +3109,7 @@
         <v>48852.46807480002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3112,7 +3142,7 @@
         <v>48852.46807480002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3145,7 +3175,7 @@
         <v>48852.46807480002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3178,7 +3208,7 @@
         <v>49531.46807480002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3211,7 +3241,7 @@
         <v>51237.81237480001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3244,7 +3274,7 @@
         <v>51241.81237480001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3277,7 +3307,7 @@
         <v>51239.81237480001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3310,7 +3340,7 @@
         <v>51239.81237480001</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3343,7 +3373,7 @@
         <v>51241.81237480001</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3376,7 +3406,7 @@
         <v>51243.81237480001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3409,7 +3439,7 @@
         <v>51245.81237480001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3475,7 +3505,7 @@
         <v>50990.60237480002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3508,7 +3538,7 @@
         <v>50546.10627480002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3541,7 +3571,7 @@
         <v>50846.10627480002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3607,7 +3637,7 @@
         <v>48595.41627480002</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3640,17 +3670,11 @@
         <v>48452.09627480002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>386.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3679,15 +3703,11 @@
         <v>48452.09627480002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3718,15 +3738,9 @@
       <c r="H99" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="n">
-        <v>386.5</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3755,15 +3769,11 @@
         <v>43963.29127480002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3794,15 +3804,9 @@
       <c r="H101" t="n">
         <v>2</v>
       </c>
-      <c r="I101" t="n">
-        <v>386.1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3831,15 +3835,11 @@
         <v>47423.03107480001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3868,15 +3868,11 @@
         <v>47085.53107480001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3907,15 +3903,9 @@
       <c r="H104" t="n">
         <v>2</v>
       </c>
-      <c r="I104" t="n">
-        <v>376</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3944,15 +3934,11 @@
         <v>47461.53107480001</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3981,15 +3967,11 @@
         <v>36257.18977480001</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4020,15 +4002,9 @@
       <c r="H107" t="n">
         <v>2</v>
       </c>
-      <c r="I107" t="n">
-        <v>378</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4057,21 +4033,17 @@
         <v>36015.18977480001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest PPT.xlsx
+++ b/BackTest/2020-01-20 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -665,17 +665,11 @@
         <v>43311.98380000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -708,11 +702,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,11 +735,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -782,11 +768,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,11 +801,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -856,11 +834,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -893,11 +867,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,11 +900,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,11 +933,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,11 +966,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,11 +999,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1032,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,11 +1065,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1152,11 +1098,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,11 +1131,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1164,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1259,16 +1193,14 @@
         <v>41346.38922437002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1294,7 +1226,7 @@
         <v>40990.08782437002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1327,7 +1259,7 @@
         <v>41074.87122437002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1360,7 +1292,7 @@
         <v>41074.87122437002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1393,7 +1325,7 @@
         <v>41074.87122437002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1426,7 +1358,7 @@
         <v>41024.87122437002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1492,7 +1424,7 @@
         <v>41171.87112437002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1558,7 +1490,7 @@
         <v>46026.08112437002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1591,7 +1523,7 @@
         <v>45890.08112437002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1624,7 +1556,7 @@
         <v>46232.38112437003</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1657,7 +1589,7 @@
         <v>46444.32042437002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1690,7 +1622,7 @@
         <v>46103.32042437002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1723,7 +1655,7 @@
         <v>46013.27552437002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1756,7 +1688,7 @@
         <v>53075.26722437002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1822,7 +1754,7 @@
         <v>54300.66782437002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1855,7 +1787,7 @@
         <v>52971.28062437003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1888,7 +1820,7 @@
         <v>53471.28062437003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1921,7 +1853,7 @@
         <v>53464.44962437003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1954,7 +1886,7 @@
         <v>53788.33372437003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1987,7 +1919,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2020,7 +1952,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2053,7 +1985,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2152,7 +2084,7 @@
         <v>54515.98702437003</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2218,7 +2150,7 @@
         <v>53695.98702437003</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2251,7 +2183,7 @@
         <v>53688.18702437003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2284,7 +2216,7 @@
         <v>53714.39992437002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2317,7 +2249,7 @@
         <v>53708.19992437003</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2350,7 +2282,7 @@
         <v>53701.99992437003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2383,7 +2315,7 @@
         <v>53801.99992437003</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2416,7 +2348,7 @@
         <v>53799.39992437003</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2449,7 +2381,7 @@
         <v>53965.47022437003</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2482,7 +2414,7 @@
         <v>53963.47022437003</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2515,7 +2447,7 @@
         <v>53962.17022437003</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2779,7 +2711,7 @@
         <v>54900.96777480002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2812,7 +2744,7 @@
         <v>54900.96777480002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2845,7 +2777,7 @@
         <v>54898.96777480002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2878,7 +2810,7 @@
         <v>54897.66777480002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2911,7 +2843,7 @@
         <v>55148.83687480002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2944,7 +2876,7 @@
         <v>55148.83687480002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2977,7 +2909,7 @@
         <v>55148.83687480002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3010,7 +2942,7 @@
         <v>54351.57887480002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3043,7 +2975,7 @@
         <v>52350.77337480002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3076,7 +3008,7 @@
         <v>48686.39777480002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3109,7 +3041,7 @@
         <v>48852.46807480002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3142,7 +3074,7 @@
         <v>48852.46807480002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3175,7 +3107,7 @@
         <v>48852.46807480002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3208,7 +3140,7 @@
         <v>49531.46807480002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3241,7 +3173,7 @@
         <v>51237.81237480001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3274,7 +3206,7 @@
         <v>51241.81237480001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3307,7 +3239,7 @@
         <v>51239.81237480001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3340,7 +3272,7 @@
         <v>51239.81237480001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3373,7 +3305,7 @@
         <v>51241.81237480001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3736,7 +3668,7 @@
         <v>48452.09627480002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3769,7 +3701,7 @@
         <v>43963.29127480002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3802,7 +3734,7 @@
         <v>47660.62867480001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3835,7 +3767,7 @@
         <v>47423.03107480001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3868,7 +3800,7 @@
         <v>47085.53107480001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3901,7 +3833,7 @@
         <v>47464.53107480001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3934,7 +3866,7 @@
         <v>47461.53107480001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3967,7 +3899,7 @@
         <v>36257.18977480001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4000,7 +3932,7 @@
         <v>36461.18977480001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4033,7 +3965,7 @@
         <v>36015.18977480001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4044,6 +3976,6 @@
       <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest PPT.xlsx
+++ b/BackTest/2020-01-20 BackTest PPT.xlsx
@@ -896,7 +896,7 @@
         <v>42365.43070000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -929,7 +929,7 @@
         <v>42315.43070000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
         <v>46232.38112437003</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
         <v>46444.32042437002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
         <v>46103.32042437002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
         <v>46013.27552437002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
         <v>54300.66782437002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
         <v>53788.33372437003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +1919,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +1985,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
         <v>54515.98702437003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>

--- a/BackTest/2020-01-20 BackTest PPT.xlsx
+++ b/BackTest/2020-01-20 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>132.1736</v>
       </c>
       <c r="G2" t="n">
-        <v>44756.017</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1.3</v>
       </c>
       <c r="G3" t="n">
-        <v>44757.317</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +503,15 @@
         <v>122</v>
       </c>
       <c r="G4" t="n">
-        <v>44635.317</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,24 +533,15 @@
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>44635.317</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,18 +563,15 @@
         <v>1177.6332</v>
       </c>
       <c r="G6" t="n">
-        <v>43457.68380000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,18 +593,15 @@
         <v>149</v>
       </c>
       <c r="G7" t="n">
-        <v>43308.68380000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,18 +623,15 @@
         <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>43311.98380000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -695,18 +653,15 @@
         <v>278</v>
       </c>
       <c r="G9" t="n">
-        <v>43033.98380000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,18 +683,15 @@
         <v>520.1559999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>43033.98380000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -761,18 +713,15 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>43035.28380000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -794,18 +743,15 @@
         <v>3768.4065</v>
       </c>
       <c r="G12" t="n">
-        <v>39266.87730000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -827,18 +773,15 @@
         <v>3098.5534</v>
       </c>
       <c r="G13" t="n">
-        <v>42365.43070000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -860,18 +803,15 @@
         <v>1.3</v>
       </c>
       <c r="G14" t="n">
-        <v>42366.73070000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,18 +833,15 @@
         <v>1.3</v>
       </c>
       <c r="G15" t="n">
-        <v>42365.43070000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,18 +863,15 @@
         <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>42315.43070000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -959,18 +893,15 @@
         <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>42318.73070000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -992,18 +923,15 @@
         <v>252.0756</v>
       </c>
       <c r="G18" t="n">
-        <v>42318.73070000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1025,18 +953,15 @@
         <v>214.3951</v>
       </c>
       <c r="G19" t="n">
-        <v>42318.73070000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1058,18 +983,15 @@
         <v>1.3869</v>
       </c>
       <c r="G20" t="n">
-        <v>42320.11760000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1091,18 +1013,15 @@
         <v>2249.4917</v>
       </c>
       <c r="G21" t="n">
-        <v>40070.62590000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,18 +1043,15 @@
         <v>1354.8134</v>
       </c>
       <c r="G22" t="n">
-        <v>41425.43930000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1157,18 +1073,15 @@
         <v>84.0252</v>
       </c>
       <c r="G23" t="n">
-        <v>41341.41410000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,18 +1103,15 @@
         <v>4.97512437</v>
       </c>
       <c r="G24" t="n">
-        <v>41346.38922437002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,18 +1133,15 @@
         <v>356.3014</v>
       </c>
       <c r="G25" t="n">
-        <v>40990.08782437002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1163,15 @@
         <v>84.7834</v>
       </c>
       <c r="G26" t="n">
-        <v>41074.87122437002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1193,15 @@
         <v>140.2927</v>
       </c>
       <c r="G27" t="n">
-        <v>41074.87122437002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1223,15 @@
         <v>140.9396</v>
       </c>
       <c r="G28" t="n">
-        <v>41074.87122437002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1253,15 @@
         <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>41024.87122437002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1283,15 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>40924.87122437002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1313,15 @@
         <v>246.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>41171.87112437002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1343,15 @@
         <v>356</v>
       </c>
       <c r="G32" t="n">
-        <v>41171.87112437002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1373,15 @@
         <v>4854.21</v>
       </c>
       <c r="G33" t="n">
-        <v>46026.08112437002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1403,15 @@
         <v>136</v>
       </c>
       <c r="G34" t="n">
-        <v>45890.08112437002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1433,15 @@
         <v>342.3</v>
       </c>
       <c r="G35" t="n">
-        <v>46232.38112437003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,18 +1463,15 @@
         <v>211.9393</v>
       </c>
       <c r="G36" t="n">
-        <v>46444.32042437002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1619,18 +1493,15 @@
         <v>341</v>
       </c>
       <c r="G37" t="n">
-        <v>46103.32042437002</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1652,18 +1523,15 @@
         <v>90.0449</v>
       </c>
       <c r="G38" t="n">
-        <v>46013.27552437002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1553,15 @@
         <v>7061.9917</v>
       </c>
       <c r="G39" t="n">
-        <v>53075.26722437002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1583,15 @@
         <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>52975.26722437002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1613,15 @@
         <v>1325.4006</v>
       </c>
       <c r="G41" t="n">
-        <v>54300.66782437002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1643,15 @@
         <v>1329.3872</v>
       </c>
       <c r="G42" t="n">
-        <v>52971.28062437003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1673,15 @@
         <v>500</v>
       </c>
       <c r="G43" t="n">
-        <v>53471.28062437003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1703,15 @@
         <v>6.831</v>
       </c>
       <c r="G44" t="n">
-        <v>53464.44962437003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +1733,15 @@
         <v>323.8841</v>
       </c>
       <c r="G45" t="n">
-        <v>53788.33372437003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +1763,15 @@
         <v>726.4533</v>
       </c>
       <c r="G46" t="n">
-        <v>54514.78702437003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +1793,15 @@
         <v>1695.076</v>
       </c>
       <c r="G47" t="n">
-        <v>54514.78702437003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +1823,15 @@
         <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>54517.28702437003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +1853,15 @@
         <v>6.24</v>
       </c>
       <c r="G49" t="n">
-        <v>54517.28702437003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +1883,15 @@
         <v>90.6725</v>
       </c>
       <c r="G50" t="n">
-        <v>54517.28702437003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +1913,15 @@
         <v>1.3</v>
       </c>
       <c r="G51" t="n">
-        <v>54515.98702437003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +1943,15 @@
         <v>1715.3602</v>
       </c>
       <c r="G52" t="n">
-        <v>54515.98702437003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +1973,15 @@
         <v>820</v>
       </c>
       <c r="G53" t="n">
-        <v>53695.98702437003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2003,15 @@
         <v>7.8</v>
       </c>
       <c r="G54" t="n">
-        <v>53688.18702437003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,18 +2033,15 @@
         <v>26.2129</v>
       </c>
       <c r="G55" t="n">
-        <v>53714.39992437002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2246,18 +2063,15 @@
         <v>6.2</v>
       </c>
       <c r="G56" t="n">
-        <v>53708.19992437003</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2279,18 +2093,15 @@
         <v>6.2</v>
       </c>
       <c r="G57" t="n">
-        <v>53701.99992437003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2312,18 +2123,15 @@
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>53801.99992437003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2153,15 @@
         <v>2.6</v>
       </c>
       <c r="G59" t="n">
-        <v>53799.39992437003</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2183,15 @@
         <v>166.0703</v>
       </c>
       <c r="G60" t="n">
-        <v>53965.47022437003</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2213,15 @@
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>53963.47022437003</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2243,15 @@
         <v>1.3</v>
       </c>
       <c r="G62" t="n">
-        <v>53962.17022437003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2273,15 @@
         <v>7.00175043</v>
       </c>
       <c r="G63" t="n">
-        <v>53969.17197480003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2303,15 @@
         <v>24.0936</v>
       </c>
       <c r="G64" t="n">
-        <v>53945.07837480002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2333,15 @@
         <v>517</v>
       </c>
       <c r="G65" t="n">
-        <v>53428.07837480002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2363,15 @@
         <v>94.4716</v>
       </c>
       <c r="G66" t="n">
-        <v>53428.07837480002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2393,15 @@
         <v>835.7828</v>
       </c>
       <c r="G67" t="n">
-        <v>54263.86117480003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2423,15 @@
         <v>44.8934</v>
       </c>
       <c r="G68" t="n">
-        <v>54218.96777480002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2453,15 @@
         <v>682</v>
       </c>
       <c r="G69" t="n">
-        <v>54900.96777480002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2483,15 @@
         <v>38.94</v>
       </c>
       <c r="G70" t="n">
-        <v>54900.96777480002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2513,15 @@
         <v>34.4117</v>
       </c>
       <c r="G71" t="n">
-        <v>54900.96777480002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2543,15 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>54898.96777480002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2573,15 @@
         <v>1.3</v>
       </c>
       <c r="G73" t="n">
-        <v>54897.66777480002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,18 +2603,15 @@
         <v>251.1691</v>
       </c>
       <c r="G74" t="n">
-        <v>55148.83687480002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2873,18 +2633,15 @@
         <v>695.8676</v>
       </c>
       <c r="G75" t="n">
-        <v>55148.83687480002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,18 +2663,15 @@
         <v>478.1434</v>
       </c>
       <c r="G76" t="n">
-        <v>55148.83687480002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2939,18 +2693,15 @@
         <v>797.258</v>
       </c>
       <c r="G77" t="n">
-        <v>54351.57887480002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2972,18 +2723,15 @@
         <v>2000.8055</v>
       </c>
       <c r="G78" t="n">
-        <v>52350.77337480002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3005,18 +2753,15 @@
         <v>3664.3756</v>
       </c>
       <c r="G79" t="n">
-        <v>48686.39777480002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3038,18 +2783,15 @@
         <v>166.0703</v>
       </c>
       <c r="G80" t="n">
-        <v>48852.46807480002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3071,18 +2813,15 @@
         <v>1679.4921</v>
       </c>
       <c r="G81" t="n">
-        <v>48852.46807480002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,18 +2843,15 @@
         <v>5.3607</v>
       </c>
       <c r="G82" t="n">
-        <v>48852.46807480002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +2873,15 @@
         <v>679</v>
       </c>
       <c r="G83" t="n">
-        <v>49531.46807480002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,18 +2903,15 @@
         <v>1706.3443</v>
       </c>
       <c r="G84" t="n">
-        <v>51237.81237480001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3203,18 +2933,15 @@
         <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>51241.81237480001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3236,18 +2963,15 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>51239.81237480001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,18 +2993,15 @@
         <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>51239.81237480001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3302,18 +3023,15 @@
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>51241.81237480001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3335,18 +3053,15 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>51243.81237480001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3368,18 +3083,15 @@
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>51245.81237480001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3401,18 +3113,15 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>51247.81237480001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3434,18 +3143,15 @@
         <v>257.21</v>
       </c>
       <c r="G92" t="n">
-        <v>50990.60237480002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3467,18 +3173,15 @@
         <v>444.4961</v>
       </c>
       <c r="G93" t="n">
-        <v>50546.10627480002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,18 +3203,15 @@
         <v>300</v>
       </c>
       <c r="G94" t="n">
-        <v>50846.10627480002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3533,18 +3233,15 @@
         <v>1800.69</v>
       </c>
       <c r="G95" t="n">
-        <v>49045.41627480002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,18 +3263,15 @@
         <v>450</v>
       </c>
       <c r="G96" t="n">
-        <v>48595.41627480002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3599,18 +3293,21 @@
         <v>143.32</v>
       </c>
       <c r="G97" t="n">
-        <v>48452.09627480002</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>386.6</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3632,18 +3329,21 @@
         <v>1231.7561</v>
       </c>
       <c r="G98" t="n">
-        <v>48452.09627480002</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>386.5</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,18 +3365,21 @@
         <v>629.6999</v>
       </c>
       <c r="G99" t="n">
-        <v>48452.09627480002</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>386.5</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3698,18 +3401,21 @@
         <v>4488.805</v>
       </c>
       <c r="G100" t="n">
-        <v>43963.29127480002</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>386.5</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3731,18 +3437,21 @@
         <v>3697.3374</v>
       </c>
       <c r="G101" t="n">
-        <v>47660.62867480001</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>386.1</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3764,18 +3473,19 @@
         <v>237.5976</v>
       </c>
       <c r="G102" t="n">
-        <v>47423.03107480001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,18 +3507,19 @@
         <v>337.5</v>
       </c>
       <c r="G103" t="n">
-        <v>47085.53107480001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3830,18 +3541,19 @@
         <v>379</v>
       </c>
       <c r="G104" t="n">
-        <v>47464.53107480001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3863,18 +3575,19 @@
         <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>47461.53107480001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3896,18 +3609,19 @@
         <v>11204.3413</v>
       </c>
       <c r="G106" t="n">
-        <v>36257.18977480001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3929,18 +3643,19 @@
         <v>204</v>
       </c>
       <c r="G107" t="n">
-        <v>36461.18977480001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,18 +3677,19 @@
         <v>446</v>
       </c>
       <c r="G108" t="n">
-        <v>36015.18977480001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
